--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7895_externalDatatype.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7895_externalDatatype.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D00A47-8ACB-4D26-9A0F-F37342D00281}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" tabRatio="965" windowHeight="2340" windowWidth="14895" xWindow="-15" yWindow="5760"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" tabRatio="965" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datatypes" r:id="rId1" sheetId="93"/>
-    <sheet name="Method" r:id="rId2" sheetId="96"/>
-    <sheet name="Env" r:id="rId3" sheetId="97"/>
+    <sheet name="Datatypes" sheetId="93" r:id="rId1"/>
+    <sheet name="Method" sheetId="96" r:id="rId2"/>
+    <sheet name="Env" sheetId="97" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Deductible">#REF!</definedName>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>int</t>
   </si>
@@ -125,25 +131,12 @@
   </si>
   <si>
     <t>if (bean != null) { int x = a + B + aa + aB + Ba + BB; }</t>
-  </si>
-  <si>
-    <t>if (bean != null) { int x = aB  }</t>
-  </si>
-  <si>
-    <t>if (bean != null) { int x = aB+Ba  }</t>
-  </si>
-  <si>
-    <t>if (bean != null) { int x = aB;  }</t>
-  </si>
-  <si>
-    <t>if (bean != null) { int x = a + B + aa + aB + Ba + BB }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -267,34 +260,34 @@
     </border>
   </borders>
   <cellStyleXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="3"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="2"/>
-    <xf applyFont="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="3"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="1"/>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="28" name="Neutral" xfId="1"/>
-    <cellStyle builtinId="22" name="Calculation" xfId="2"/>
-    <cellStyle builtinId="10" name="Note" xfId="3"/>
-    <cellStyle builtinId="21" name="Output" xfId="4"/>
+    <cellStyle name="Вывод" xfId="4" builtinId="21"/>
+    <cellStyle name="Вычисление" xfId="2" builtinId="22"/>
+    <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Примечание" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFE1FFFF"/>
@@ -308,19 +301,22 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -353,9 +349,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,9 +384,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -423,9 +436,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,7 +508,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -487,13 +517,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -503,7 +533,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -512,7 +542,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -521,7 +551,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -531,12 +561,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -567,7 +597,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -586,7 +616,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -598,28 +628,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.5">
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -630,7 +660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row ht="15.75" r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="15.75" r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row ht="15.75" r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row ht="15.75" r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row ht="15.75" r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,24 +730,24 @@
   <mergeCells count="1">
     <mergeCell ref="B4:D4"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B3:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="48.85546875" collapsed="true"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -735,7 +765,7 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row ht="15.75" r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B4" s="1" t="s">
         <v>33</v>
       </c>
@@ -767,7 +797,7 @@
         <v>20</v>
       </c>
     </row>
-    <row ht="15.75" r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -799,7 +829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row ht="15.75" r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
@@ -816,7 +846,7 @@
         <v>25</v>
       </c>
     </row>
-    <row ht="15.75" r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
@@ -833,7 +863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row ht="15.75" r="8" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
@@ -852,7 +882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row ht="15.75" r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
@@ -881,7 +911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row ht="15.75" r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
@@ -898,30 +928,30 @@
         <v>32</v>
       </c>
     </row>
-    <row ht="15.75" r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="I11" s="1">
-        <v>8000</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1">
-        <v>16000</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1">
-        <v>32000</v>
-      </c>
-    </row>
-    <row ht="15.75" r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
@@ -929,22 +959,22 @@
         <v>7777777</v>
       </c>
       <c r="G12" s="1">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="I12" s="1">
-        <v>8000</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1">
-        <v>16000</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1">
-        <v>32000</v>
-      </c>
-    </row>
-    <row ht="15.75" r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="14.65" x14ac:dyDescent="0.5">
       <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
@@ -972,30 +1002,30 @@
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="M3:N3"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B4:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="15.75" r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row ht="15.75" r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="14.65" x14ac:dyDescent="0.5">
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1007,6 +1037,6 @@
   <mergeCells count="1">
     <mergeCell ref="B4:C4"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>